--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Deposits.xlsx
@@ -20,9 +20,6 @@
     <sheet name="6M (2)" sheetId="30" r:id="rId11"/>
     <sheet name="1Y (2)" sheetId="31" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
   <si>
     <t>Currency</t>
   </si>
@@ -161,6 +158,9 @@
   <si>
     <t>Sonia</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +175,7 @@
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="170" formatCode="General_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -730,22 +730,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1040,7 +1024,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="11" customWidth="1"/>
@@ -1051,13 +1035,13 @@
     <col min="7" max="16384" width="8" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="73" t="s">
         <v>13</v>
@@ -1066,14 +1050,14 @@
       <c r="D2" s="74"/>
       <c r="E2" s="75"/>
     </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="17"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="17"/>
       <c r="C4" s="27" t="s">
@@ -1082,7 +1066,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="17"/>
       <c r="C5" s="27" t="s">
@@ -1093,7 +1077,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
       <c r="C6" s="27" t="s">
@@ -1104,7 +1088,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="17"/>
       <c r="C7" s="27" t="s">
@@ -1115,19 +1099,18 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="17"/>
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="17"/>
       <c r="C9" s="27" t="s">
@@ -1138,15 +1121,15 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:22" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
         <v>23</v>
       </c>
@@ -1157,13 +1140,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="31" t="s">
         <v>0</v>
@@ -1176,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="31" t="s">
         <v>26</v>
@@ -1186,7 +1169,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="31" t="s">
         <v>19</v>
@@ -1196,7 +1179,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -1231,7 +1214,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -1244,7 +1227,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -1261,7 +1244,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -1274,17 +1257,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC3M-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F8,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>6</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -1315,7 +1298,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -1346,7 +1329,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -1377,7 +1360,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -1408,7 +1391,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>4</v>
@@ -1439,7 +1422,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -1470,7 +1453,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1">
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1497,7 +1480,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -1510,7 +1493,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -1527,7 +1510,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -1540,17 +1523,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC6M-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -1581,7 +1564,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -1612,7 +1595,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -1643,7 +1626,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -1674,7 +1657,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>4</v>
@@ -1705,7 +1688,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -1736,7 +1719,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>6</v>
@@ -1767,7 +1750,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>7</v>
@@ -1798,7 +1781,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>8</v>
@@ -1829,7 +1812,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1">
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1856,7 +1839,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -1869,7 +1852,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -1886,7 +1869,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -1899,17 +1882,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC1Y-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F17,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>15</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -1940,7 +1923,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -1971,7 +1954,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -2002,7 +1985,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -2033,7 +2016,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>4</v>
@@ -2064,7 +2047,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -2095,7 +2078,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>6</v>
@@ -2126,7 +2109,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>7</v>
@@ -2157,7 +2140,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>8</v>
@@ -2188,7 +2171,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="34" t="s">
         <v>27</v>
@@ -2219,7 +2202,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="34" t="s">
         <v>28</v>
@@ -2250,7 +2233,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="34" t="s">
         <v>9</v>
@@ -2281,7 +2264,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="34" t="s">
         <v>29</v>
@@ -2312,7 +2295,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="34" t="s">
         <v>30</v>
@@ -2343,7 +2326,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="34" t="s">
         <v>10</v>
@@ -2374,7 +2357,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1">
+    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2401,7 +2384,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="54" customWidth="1"/>
     <col min="2" max="2" width="4" style="54" bestFit="1" customWidth="1"/>
@@ -2417,7 +2400,7 @@
     <col min="12" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2432,7 +2415,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56" t="s">
@@ -2445,17 +2428,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="58" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="53"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="60" t="s">
         <v>24</v>
@@ -2485,7 +2468,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="66" t="s">
         <v>25</v>
@@ -2516,7 +2499,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
@@ -2547,7 +2530,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="66" t="s">
         <v>2</v>
@@ -2578,7 +2561,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="66" t="s">
         <v>3</v>
@@ -2609,7 +2592,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="66" t="s">
         <v>4</v>
@@ -2640,7 +2623,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="66" t="s">
         <v>5</v>
@@ -2671,7 +2654,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="66" t="s">
         <v>6</v>
@@ -2702,7 +2685,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
       <c r="B11" s="66" t="s">
         <v>7</v>
@@ -2733,7 +2716,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
       <c r="B12" s="66" t="s">
         <v>8</v>
@@ -2764,7 +2747,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="66" t="s">
         <v>27</v>
@@ -2795,7 +2778,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
       <c r="B14" s="66" t="s">
         <v>28</v>
@@ -2826,7 +2809,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
       <c r="B15" s="66" t="s">
         <v>9</v>
@@ -2857,7 +2840,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="66" t="s">
         <v>29</v>
@@ -2888,7 +2871,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="66" t="s">
         <v>30</v>
@@ -2919,7 +2902,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="66" t="s">
         <v>10</v>
@@ -2950,7 +2933,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25" thickBot="1">
+    <row r="19" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
@@ -2977,7 +2960,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -2990,7 +2973,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3003,7 +2986,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3016,17 +2999,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YCRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>24</v>
@@ -3056,7 +3039,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" thickBot="1">
+    <row r="4" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3083,7 +3066,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -3096,7 +3079,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3111,7 +3094,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3124,17 +3107,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YCONRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>24</v>
@@ -3164,7 +3147,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" thickBot="1">
+    <row r="4" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3191,7 +3174,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="40" bestFit="1" customWidth="1"/>
@@ -3206,7 +3189,7 @@
     <col min="11" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3219,7 +3202,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3232,17 +3215,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC1MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>4</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -3273,7 +3256,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -3304,7 +3287,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -3335,7 +3318,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -3366,7 +3349,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12" thickBot="1">
+    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3393,7 +3376,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -3406,7 +3389,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3421,7 +3404,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3434,17 +3417,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F8,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>6</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -3475,7 +3458,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -3506,7 +3489,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -3537,7 +3520,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -3568,7 +3551,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>4</v>
@@ -3599,7 +3582,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -3630,7 +3613,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" thickBot="1">
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3657,7 +3640,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -3670,7 +3653,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3685,7 +3668,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3698,17 +3681,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -3739,7 +3722,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -3770,7 +3753,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -3801,7 +3784,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -3832,7 +3815,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>4</v>
@@ -3863,7 +3846,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -3894,7 +3877,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>6</v>
@@ -3925,7 +3908,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>7</v>
@@ -3956,7 +3939,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>8</v>
@@ -3987,7 +3970,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1">
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4014,7 +3997,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -4027,7 +4010,7 @@
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4042,7 +4025,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -4055,17 +4038,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC1YRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F17,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>15</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -4096,7 +4079,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -4127,7 +4110,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -4158,7 +4141,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -4189,7 +4172,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>4</v>
@@ -4220,7 +4203,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -4251,7 +4234,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>6</v>
@@ -4282,7 +4265,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>7</v>
@@ -4313,7 +4296,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>8</v>
@@ -4344,7 +4327,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="34" t="s">
         <v>27</v>
@@ -4375,7 +4358,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="34" t="s">
         <v>28</v>
@@ -4406,7 +4389,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="34" t="s">
         <v>9</v>
@@ -4437,7 +4420,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="34" t="s">
         <v>29</v>
@@ -4468,7 +4451,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="34" t="s">
         <v>30</v>
@@ -4499,7 +4482,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="34" t="s">
         <v>10</v>
@@ -4530,7 +4513,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1">
+    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4557,7 +4540,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="40" bestFit="1" customWidth="1"/>
@@ -4572,7 +4555,7 @@
     <col min="11" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -4587,7 +4570,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -4600,17 +4583,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC1M-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>4</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -4641,7 +4624,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>1</v>
@@ -4672,7 +4655,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>2</v>
@@ -4703,7 +4686,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>3</v>
@@ -4734,7 +4717,7 @@
         <v>41485</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12" thickBot="1">
+    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Deposits.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
   <si>
     <t>Currency</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Sonia</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1102,9 @@
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>36</v>
+      <c r="D8" s="29" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1258,12 +1256,12 @@
         <v>GBP_YC3M-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F8,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F8,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1524,12 +1522,12 @@
         <v>GBP_YC6M-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1883,12 +1881,12 @@
         <v>GBP_YC1Y-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F17,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F17,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2429,12 +2427,12 @@
         <v>GBP_YCSTDRH_Deposits.xml</v>
       </c>
       <c r="F2" s="58" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="53"/>
     </row>
@@ -3000,12 +2998,12 @@
         <v>GBP_YCRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3108,12 +3106,12 @@
         <v>GBP_YCONRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3216,12 +3214,12 @@
         <v>GBP_YC1MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3418,12 +3416,12 @@
         <v>GBP_YC3MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F8,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F8,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3682,12 +3680,12 @@
         <v>GBP_YC6MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -4039,12 +4037,12 @@
         <v>GBP_YC1YRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F17,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F17,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -4584,12 +4582,12 @@
         <v>GBP_YC1M-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
